--- a/team_specific_matrix/Campbell_A.xlsx
+++ b/team_specific_matrix/Campbell_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1897233201581028</v>
+        <v>0.1947194719471947</v>
       </c>
       <c r="C2">
-        <v>0.5652173913043478</v>
+        <v>0.5511551155115512</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01185770750988142</v>
+        <v>0.0132013201320132</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1462450592885375</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08695652173913043</v>
+        <v>0.0924092409240924</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00641025641025641</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="C3">
-        <v>0.01923076923076923</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01923076923076923</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7371794871794872</v>
+        <v>0.7569060773480663</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.217948717948718</v>
+        <v>0.2044198895027624</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0303030303030303</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.303030303030303</v>
+        <v>0.3243243243243243</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04347826086956522</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05797101449275362</v>
+        <v>0.05857740585774059</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2946859903381642</v>
+        <v>0.3054393305439331</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01932367149758454</v>
+        <v>0.01673640167364017</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1594202898550725</v>
+        <v>0.1464435146443515</v>
       </c>
       <c r="R6">
-        <v>0.07246376811594203</v>
+        <v>0.07531380753138076</v>
       </c>
       <c r="S6">
-        <v>0.3526570048309179</v>
+        <v>0.3514644351464435</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.112781954887218</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007518796992481203</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09022556390977443</v>
+        <v>0.08280254777070063</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09022556390977443</v>
+        <v>0.08917197452229299</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01503759398496241</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1879699248120301</v>
+        <v>0.2038216560509554</v>
       </c>
       <c r="R7">
-        <v>0.09022556390977443</v>
+        <v>0.08280254777070063</v>
       </c>
       <c r="S7">
-        <v>0.4060150375939849</v>
+        <v>0.4267515923566879</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0862533692722372</v>
+        <v>0.09153318077803203</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0215633423180593</v>
+        <v>0.02288329519450801</v>
       </c>
       <c r="E8">
-        <v>0.002695417789757413</v>
+        <v>0.002288329519450801</v>
       </c>
       <c r="F8">
-        <v>0.08086253369272237</v>
+        <v>0.08237986270022883</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09433962264150944</v>
+        <v>0.09153318077803203</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01886792452830189</v>
+        <v>0.01830663615560641</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1859838274932614</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="R8">
-        <v>0.08086253369272237</v>
+        <v>0.07780320366132723</v>
       </c>
       <c r="S8">
-        <v>0.4285714285714285</v>
+        <v>0.4393592677345537</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1018518518518518</v>
+        <v>0.1008403361344538</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01851851851851852</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="E9">
-        <v>0.004629629629629629</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="F9">
-        <v>0.04629629629629629</v>
+        <v>0.05042016806722689</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07870370370370371</v>
+        <v>0.08403361344537816</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01851851851851852</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2037037037037037</v>
+        <v>0.2016806722689076</v>
       </c>
       <c r="R9">
-        <v>0.1157407407407407</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="S9">
-        <v>0.412037037037037</v>
+        <v>0.4201680672268908</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1115140525838622</v>
+        <v>0.1174628034455756</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01813236627379873</v>
+        <v>0.01722787783868442</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06255666364460562</v>
+        <v>0.06108065779169929</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1115140525838622</v>
+        <v>0.1096319498825372</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01269265639165911</v>
+        <v>0.01409553641346907</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.228467815049864</v>
+        <v>0.2255285826155051</v>
       </c>
       <c r="R10">
-        <v>0.08068902991840435</v>
+        <v>0.07987470634299139</v>
       </c>
       <c r="S10">
-        <v>0.3744333635539438</v>
+        <v>0.375097885669538</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.109452736318408</v>
+        <v>0.1234042553191489</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1144278606965174</v>
+        <v>0.1021276595744681</v>
       </c>
       <c r="K11">
-        <v>0.1840796019900497</v>
+        <v>0.1957446808510638</v>
       </c>
       <c r="L11">
-        <v>0.572139303482587</v>
+        <v>0.5574468085106383</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01990049751243781</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6967213114754098</v>
+        <v>0.7194244604316546</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2213114754098361</v>
+        <v>0.2014388489208633</v>
       </c>
       <c r="K12">
-        <v>0.02459016393442623</v>
+        <v>0.02158273381294964</v>
       </c>
       <c r="L12">
-        <v>0.03278688524590164</v>
+        <v>0.03597122302158273</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02459016393442623</v>
+        <v>0.02158273381294964</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6274509803921569</v>
+        <v>0.625</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0392156862745098</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.015</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.195</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="I15">
-        <v>0.08500000000000001</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="J15">
-        <v>0.325</v>
+        <v>0.3173913043478261</v>
       </c>
       <c r="K15">
-        <v>0.04</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07000000000000001</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.25</v>
+        <v>0.2521739130434782</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01829268292682927</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1219512195121951</v>
+        <v>0.1275510204081633</v>
       </c>
       <c r="I16">
-        <v>0.0975609756097561</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="J16">
-        <v>0.451219512195122</v>
+        <v>0.4591836734693878</v>
       </c>
       <c r="K16">
-        <v>0.07926829268292683</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02439024390243903</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07317073170731707</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1341463414634146</v>
+        <v>0.1275510204081633</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02336448598130841</v>
+        <v>0.02489626556016597</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1565420560747663</v>
+        <v>0.1556016597510373</v>
       </c>
       <c r="I17">
-        <v>0.09813084112149532</v>
+        <v>0.1037344398340249</v>
       </c>
       <c r="J17">
-        <v>0.4158878504672897</v>
+        <v>0.4149377593360996</v>
       </c>
       <c r="K17">
-        <v>0.08644859813084112</v>
+        <v>0.08713692946058091</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02570093457943925</v>
+        <v>0.02282157676348548</v>
       </c>
       <c r="N17">
-        <v>0.002336448598130841</v>
+        <v>0.002074688796680498</v>
       </c>
       <c r="O17">
-        <v>0.07710280373831775</v>
+        <v>0.07053941908713693</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1144859813084112</v>
+        <v>0.1182572614107884</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02339181286549707</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2046783625730994</v>
+        <v>0.2094240837696335</v>
       </c>
       <c r="I18">
-        <v>0.1169590643274854</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="J18">
-        <v>0.4210526315789473</v>
+        <v>0.4083769633507853</v>
       </c>
       <c r="K18">
-        <v>0.05263157894736842</v>
+        <v>0.05759162303664921</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01169590643274854</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05263157894736842</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1169590643274854</v>
+        <v>0.1151832460732984</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02724077328646749</v>
+        <v>0.02484939759036145</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1845342706502636</v>
+        <v>0.1890060240963855</v>
       </c>
       <c r="I19">
-        <v>0.1054481546572935</v>
+        <v>0.09789156626506024</v>
       </c>
       <c r="J19">
-        <v>0.3655536028119508</v>
+        <v>0.3719879518072289</v>
       </c>
       <c r="K19">
-        <v>0.08347978910369068</v>
+        <v>0.08283132530120482</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02899824253075571</v>
+        <v>0.0286144578313253</v>
       </c>
       <c r="N19">
-        <v>0.0008787346221441124</v>
+        <v>0.0007530120481927711</v>
       </c>
       <c r="O19">
-        <v>0.07117750439367311</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.132688927943761</v>
+        <v>0.1317771084337349</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Campbell_A.xlsx
+++ b/team_specific_matrix/Campbell_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1947194719471947</v>
+        <v>0.1945288753799392</v>
       </c>
       <c r="C2">
-        <v>0.5511551155115512</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0132013201320132</v>
+        <v>0.01519756838905775</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1485148514851485</v>
+        <v>0.1519756838905775</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0924092409240924</v>
+        <v>0.0851063829787234</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005524861878453038</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="C3">
-        <v>0.01657458563535912</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01657458563535912</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7569060773480663</v>
+        <v>0.7564766839378239</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2044198895027624</v>
+        <v>0.2020725388601036</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02702702702702703</v>
+        <v>0.025</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6486486486486487</v>
+        <v>0.675</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3243243243243243</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04602510460251046</v>
+        <v>0.05019305019305019</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05857740585774059</v>
+        <v>0.05791505791505792</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3054393305439331</v>
+        <v>0.3011583011583012</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01673640167364017</v>
+        <v>0.01544401544401544</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1464435146443515</v>
+        <v>0.1544401544401544</v>
       </c>
       <c r="R6">
-        <v>0.07531380753138076</v>
+        <v>0.07722007722007722</v>
       </c>
       <c r="S6">
-        <v>0.3514644351464435</v>
+        <v>0.3436293436293436</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09554140127388536</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006369426751592357</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08280254777070063</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08917197452229299</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01273885350318471</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2038216560509554</v>
+        <v>0.1954022988505747</v>
       </c>
       <c r="R7">
-        <v>0.08280254777070063</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="S7">
-        <v>0.4267515923566879</v>
+        <v>0.4252873563218391</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09153318077803203</v>
+        <v>0.0872210953346856</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02288329519450801</v>
+        <v>0.02028397565922921</v>
       </c>
       <c r="E8">
-        <v>0.002288329519450801</v>
+        <v>0.002028397565922921</v>
       </c>
       <c r="F8">
-        <v>0.08237986270022883</v>
+        <v>0.07910750507099391</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09153318077803203</v>
+        <v>0.09533468559837728</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01830663615560641</v>
+        <v>0.02028397565922921</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1739130434782609</v>
+        <v>0.18052738336714</v>
       </c>
       <c r="R8">
-        <v>0.07780320366132723</v>
+        <v>0.08519269776876268</v>
       </c>
       <c r="S8">
-        <v>0.4393592677345537</v>
+        <v>0.4300202839756592</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1008403361344538</v>
+        <v>0.0996309963099631</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01680672268907563</v>
+        <v>0.01476014760147601</v>
       </c>
       <c r="E9">
-        <v>0.004201680672268907</v>
+        <v>0.003690036900369004</v>
       </c>
       <c r="F9">
-        <v>0.05042016806722689</v>
+        <v>0.05166051660516605</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08403361344537816</v>
+        <v>0.08118081180811808</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01680672268907563</v>
+        <v>0.01476014760147601</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2016806722689076</v>
+        <v>0.2140221402214022</v>
       </c>
       <c r="R9">
-        <v>0.1050420168067227</v>
+        <v>0.0996309963099631</v>
       </c>
       <c r="S9">
-        <v>0.4201680672268908</v>
+        <v>0.4206642066420664</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1174628034455756</v>
+        <v>0.1122956645344705</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01722787783868442</v>
+        <v>0.01705756929637527</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06108065779169929</v>
+        <v>0.06112295664534471</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1096319498825372</v>
+        <v>0.1066098081023454</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01409553641346907</v>
+        <v>0.01350390902629709</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2255285826155051</v>
+        <v>0.2210376687988628</v>
       </c>
       <c r="R10">
-        <v>0.07987470634299139</v>
+        <v>0.08528784648187633</v>
       </c>
       <c r="S10">
-        <v>0.375097885669538</v>
+        <v>0.3830845771144278</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1234042553191489</v>
+        <v>0.1235059760956175</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1021276595744681</v>
+        <v>0.09561752988047809</v>
       </c>
       <c r="K11">
-        <v>0.1957446808510638</v>
+        <v>0.1912350597609562</v>
       </c>
       <c r="L11">
-        <v>0.5574468085106383</v>
+        <v>0.5697211155378487</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02127659574468085</v>
+        <v>0.0199203187250996</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7194244604316546</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2014388489208633</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="K12">
-        <v>0.02158273381294964</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="L12">
-        <v>0.03597122302158273</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02158273381294964</v>
+        <v>0.01973684210526316</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.625</v>
+        <v>0.609375</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3392857142857143</v>
+        <v>0.359375</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03571428571428571</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01739130434782609</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1956521739130435</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="I15">
-        <v>0.0782608695652174</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J15">
-        <v>0.3173913043478261</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="K15">
-        <v>0.04347826086956522</v>
+        <v>0.03968253968253968</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01739130434782609</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0782608695652174</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2521739130434782</v>
+        <v>0.2658730158730159</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02551020408163265</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1275510204081633</v>
+        <v>0.1415094339622641</v>
       </c>
       <c r="I16">
-        <v>0.1020408163265306</v>
+        <v>0.09905660377358491</v>
       </c>
       <c r="J16">
-        <v>0.4591836734693878</v>
+        <v>0.4669811320754717</v>
       </c>
       <c r="K16">
-        <v>0.07653061224489796</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02040816326530612</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06122448979591837</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1275510204081633</v>
+        <v>0.1179245283018868</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02489626556016597</v>
+        <v>0.02429906542056075</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1556016597510373</v>
+        <v>0.1700934579439252</v>
       </c>
       <c r="I17">
-        <v>0.1037344398340249</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="J17">
-        <v>0.4149377593360996</v>
+        <v>0.4149532710280374</v>
       </c>
       <c r="K17">
-        <v>0.08713692946058091</v>
+        <v>0.08224299065420561</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02282157676348548</v>
+        <v>0.02616822429906542</v>
       </c>
       <c r="N17">
-        <v>0.002074688796680498</v>
+        <v>0.001869158878504673</v>
       </c>
       <c r="O17">
-        <v>0.07053941908713693</v>
+        <v>0.06728971962616823</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1182572614107884</v>
+        <v>0.1102803738317757</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03141361256544502</v>
+        <v>0.02690582959641256</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2094240837696335</v>
+        <v>0.2017937219730942</v>
       </c>
       <c r="I18">
-        <v>0.1047120418848168</v>
+        <v>0.1210762331838565</v>
       </c>
       <c r="J18">
-        <v>0.4083769633507853</v>
+        <v>0.3901345291479821</v>
       </c>
       <c r="K18">
-        <v>0.05759162303664921</v>
+        <v>0.06278026905829596</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01047120418848168</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06282722513089005</v>
+        <v>0.06278026905829596</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1151832460732984</v>
+        <v>0.1210762331838565</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02484939759036145</v>
+        <v>0.02520435967302452</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1890060240963855</v>
+        <v>0.1900544959128065</v>
       </c>
       <c r="I19">
-        <v>0.09789156626506024</v>
+        <v>0.1001362397820163</v>
       </c>
       <c r="J19">
-        <v>0.3719879518072289</v>
+        <v>0.3712534059945504</v>
       </c>
       <c r="K19">
-        <v>0.08283132530120482</v>
+        <v>0.08038147138964577</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0286144578313253</v>
+        <v>0.02861035422343324</v>
       </c>
       <c r="N19">
-        <v>0.0007530120481927711</v>
+        <v>0.0006811989100817438</v>
       </c>
       <c r="O19">
-        <v>0.07228915662650602</v>
+        <v>0.07288828337874659</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1317771084337349</v>
+        <v>0.1307901907356948</v>
       </c>
     </row>
   </sheetData>
